--- a/sgz2017Res/坐标信息.xlsx
+++ b/sgz2017Res/坐标信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\按键精灵\total\sgz2017Res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\按键精灵\sgz2017Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7711267E-0D1D-4343-819E-682C4462A710}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5898E3AC-30D6-4E9F-8776-15EECB46A8B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" xr2:uid="{04D67D9C-1B2C-4622-8A0B-4E541DA10E4B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="169">
   <si>
     <t>普通副本</t>
   </si>
@@ -582,6 +582,22 @@
   </si>
   <si>
     <t>选服按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧第一矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧第一矿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -959,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB9CDB2-2A48-4C18-B82B-4B86BCF8C422}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1050,7 @@
         <v>60</v>
       </c>
       <c r="G2" t="str">
-        <f>A2&amp;F2&amp;D2&amp;F2&amp;E2</f>
+        <f t="shared" ref="G2:G35" si="0">A2&amp;F2&amp;D2&amp;F2&amp;E2</f>
         <v>1|54|1148</v>
       </c>
       <c r="I2" t="str">
@@ -1074,23 +1090,23 @@
         <v>60</v>
       </c>
       <c r="G3" t="str">
-        <f>A3&amp;F3&amp;D3&amp;F3&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>3|316|1178</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I35" si="0">$C3&amp;$I$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$D3</f>
+        <f t="shared" ref="I3:I35" si="1">$C3&amp;$I$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$D3</f>
         <v>副本坐标X = 316</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J35" si="1">$C3&amp;$J$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$E3</f>
+        <f t="shared" ref="J3:J35" si="2">$C3&amp;$J$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$E3</f>
         <v>副本坐标Y = 1178</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K35" si="2">I3&amp;$K$1&amp;$N$1&amp;$K$1&amp;J3</f>
+        <f t="shared" ref="K3:K35" si="3">I3&amp;$K$1&amp;$N$1&amp;$K$1&amp;J3</f>
         <v>副本坐标X = 316 : 副本坐标Y = 1178</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L35" si="3">$L$1&amp;$K$1&amp;$C3&amp;$I$1&amp;$O$1&amp;$K$1&amp;$C3&amp;$J$1</f>
+        <f t="shared" ref="L3:L35" si="4">$L$1&amp;$K$1&amp;$C3&amp;$I$1&amp;$O$1&amp;$K$1&amp;$C3&amp;$J$1</f>
         <v>Dim 副本坐标X, 副本坐标Y</v>
       </c>
     </row>
@@ -1114,23 +1130,23 @@
         <v>60</v>
       </c>
       <c r="G4" t="str">
-        <f>A4&amp;F4&amp;D4&amp;F4&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>4|520|1178</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>商城坐标X = 520</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>商城坐标Y = 1178</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>商城坐标X = 520 : 商城坐标Y = 1178</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 商城坐标X, 商城坐标Y</v>
       </c>
     </row>
@@ -1154,23 +1170,23 @@
         <v>60</v>
       </c>
       <c r="G5" t="str">
-        <f>A5&amp;F5&amp;D5&amp;F5&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>5|420|1178</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>日常活动坐标X = 420</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>日常活动坐标Y = 1178</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>日常活动坐标X = 420 : 日常活动坐标Y = 1178</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 日常活动坐标X, 日常活动坐标Y</v>
       </c>
     </row>
@@ -1194,23 +1210,23 @@
         <v>60</v>
       </c>
       <c r="G6" t="str">
-        <f>A6&amp;F6&amp;D6&amp;F6&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>6|208|1178</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>任务坐标X = 208</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>任务坐标Y = 1178</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>任务坐标X = 208 : 任务坐标Y = 1178</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 任务坐标X, 任务坐标Y</v>
       </c>
     </row>
@@ -1234,23 +1250,23 @@
         <v>60</v>
       </c>
       <c r="G7" t="str">
-        <f>A7&amp;F7&amp;D7&amp;F7&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>7|510|91</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>建筑坐标X = 510</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>建筑坐标Y = 91</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>建筑坐标X = 510 : 建筑坐标Y = 91</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 建筑坐标X, 建筑坐标Y</v>
       </c>
     </row>
@@ -1274,23 +1290,23 @@
         <v>60</v>
       </c>
       <c r="G8" t="str">
-        <f>A8&amp;F8&amp;D8&amp;F8&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>8|392|91</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>出征坐标X = 392</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>出征坐标Y = 91</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>出征坐标X = 392 : 出征坐标Y = 91</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 出征坐标X, 出征坐标Y</v>
       </c>
     </row>
@@ -1314,23 +1330,23 @@
         <v>60</v>
       </c>
       <c r="G9" t="str">
-        <f>A9&amp;F9&amp;D9&amp;F9&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>9|274|91</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>兵事坐标X = 274</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>兵事坐标Y = 91</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>兵事坐标X = 274 : 兵事坐标Y = 91</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 兵事坐标X, 兵事坐标Y</v>
       </c>
     </row>
@@ -1354,23 +1370,23 @@
         <v>60</v>
       </c>
       <c r="G10" t="str">
-        <f>A10&amp;F10&amp;D10&amp;F10&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>14|55|533</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>武将坐标X = 55</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>武将坐标Y = 533</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>武将坐标X = 55 : 武将坐标Y = 533</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 武将坐标X, 武将坐标Y</v>
       </c>
     </row>
@@ -1394,23 +1410,23 @@
         <v>60</v>
       </c>
       <c r="G11" t="str">
-        <f>A11&amp;F11&amp;D11&amp;F11&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>15|55|668</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>阵容坐标X = 55</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>阵容坐标Y = 668</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>阵容坐标X = 55 : 阵容坐标Y = 668</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 阵容坐标X, 阵容坐标Y</v>
       </c>
     </row>
@@ -1434,23 +1450,23 @@
         <v>60</v>
       </c>
       <c r="G12" t="str">
-        <f>A12&amp;F12&amp;D12&amp;F12&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>16|55|803</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>背包坐标X = 55</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>背包坐标Y = 803</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>背包坐标X = 55 : 背包坐标Y = 803</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 背包坐标X, 背包坐标Y</v>
       </c>
     </row>
@@ -1474,23 +1490,23 @@
         <v>60</v>
       </c>
       <c r="G13" t="str">
-        <f>A13&amp;F13&amp;D13&amp;F13&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>17|55|938</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>军团坐标X = 55</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>军团坐标Y = 938</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>军团坐标X = 55 : 军团坐标Y = 938</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 军团坐标X, 军团坐标Y</v>
       </c>
     </row>
@@ -1514,23 +1530,23 @@
         <v>60</v>
       </c>
       <c r="G14" t="str">
-        <f>A14&amp;F14&amp;D14&amp;F14&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>19|135|50</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>邮件坐标X = 135</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>邮件坐标Y = 50</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>邮件坐标X = 135 : 邮件坐标Y = 50</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 邮件坐标X, 邮件坐标Y</v>
       </c>
     </row>
@@ -1554,23 +1570,23 @@
         <v>60</v>
       </c>
       <c r="G15" t="str">
-        <f>A15&amp;F15&amp;D15&amp;F15&amp;E15</f>
+        <f t="shared" si="0"/>
         <v>20|695|871</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>资源坐标X = 695</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>资源坐标Y = 871</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>资源坐标X = 695 : 资源坐标Y = 871</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 资源坐标X, 资源坐标Y</v>
       </c>
     </row>
@@ -1594,23 +1610,23 @@
         <v>60</v>
       </c>
       <c r="G16" t="str">
-        <f>A16&amp;F16&amp;D16&amp;F16&amp;E16</f>
+        <f t="shared" si="0"/>
         <v>32|597|350</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>VIP坐标X = 597</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>VIP坐标Y = 350</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>VIP坐标X = 597 : VIP坐标Y = 350</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim VIP坐标X, VIP坐标Y</v>
       </c>
     </row>
@@ -1634,23 +1650,23 @@
         <v>60</v>
       </c>
       <c r="G17" t="str">
-        <f>A17&amp;F17&amp;D17&amp;F17&amp;E17</f>
+        <f t="shared" si="0"/>
         <v>33|665|60</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>主公坐标X = 665</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>主公坐标Y = 60</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>主公坐标X = 665 : 主公坐标Y = 60</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 主公坐标X, 主公坐标Y</v>
       </c>
     </row>
@@ -1674,23 +1690,23 @@
         <v>60</v>
       </c>
       <c r="G18" t="str">
-        <f>A18&amp;F18&amp;D18&amp;F18&amp;E18</f>
+        <f t="shared" si="0"/>
         <v>44|55|1073</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>国家坐标X = 55</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>国家坐标Y = 1073</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>国家坐标X = 55 : 国家坐标Y = 1073</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 国家坐标X, 国家坐标Y</v>
       </c>
     </row>
@@ -1714,23 +1730,23 @@
         <v>60</v>
       </c>
       <c r="G19" t="str">
-        <f>A19&amp;F19&amp;D19&amp;F19&amp;E19</f>
+        <f t="shared" si="0"/>
         <v>57|-1|-1</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>繁荣度坐标X = -1</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>繁荣度坐标Y = -1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>繁荣度坐标X = -1 : 繁荣度坐标Y = -1</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 繁荣度坐标X, 繁荣度坐标Y</v>
       </c>
     </row>
@@ -1754,23 +1770,23 @@
         <v>60</v>
       </c>
       <c r="G20" t="str">
-        <f>A20&amp;F20&amp;D20&amp;F20&amp;E20</f>
+        <f t="shared" si="0"/>
         <v>58|-1|-1</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>排行榜坐标X = -1</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>排行榜坐标Y = -1</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>排行榜坐标X = -1 : 排行榜坐标Y = -1</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 排行榜坐标X, 排行榜坐标Y</v>
       </c>
     </row>
@@ -1794,23 +1810,23 @@
         <v>60</v>
       </c>
       <c r="G21" t="str">
-        <f>A21&amp;F21&amp;D21&amp;F21&amp;E21</f>
+        <f t="shared" si="0"/>
         <v>59|-1|-1</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>帮助界面坐标X = -1</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>帮助界面坐标Y = -1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>帮助界面坐标X = -1 : 帮助界面坐标Y = -1</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 帮助界面坐标X, 帮助界面坐标Y</v>
       </c>
     </row>
@@ -1834,23 +1850,23 @@
         <v>60</v>
       </c>
       <c r="G22" t="str">
-        <f>A22&amp;F22&amp;D22&amp;F22&amp;E22</f>
+        <f t="shared" si="0"/>
         <v>60|624|1233</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>设置坐标X = 624</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>设置坐标Y = 1233</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>设置坐标X = 624 : 设置坐标Y = 1233</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 设置坐标X, 设置坐标Y</v>
       </c>
     </row>
@@ -1874,23 +1890,23 @@
         <v>60</v>
       </c>
       <c r="G23" t="str">
-        <f>A23&amp;F23&amp;D23&amp;F23&amp;E23</f>
+        <f t="shared" si="0"/>
         <v>2|54|1148</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>大地图坐标X = 54</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>大地图坐标Y = 1148</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>大地图坐标X = 54 : 大地图坐标Y = 1148</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 大地图坐标X, 大地图坐标Y</v>
       </c>
     </row>
@@ -1914,26 +1930,26 @@
         <v>60</v>
       </c>
       <c r="G24" t="str">
-        <f>A24&amp;F24&amp;D24&amp;F24&amp;E24</f>
+        <f t="shared" si="0"/>
         <v>46|702|1191</v>
       </c>
       <c r="H24" t="s">
         <v>142</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>附近界面坐标X = 702</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>附近界面坐标Y = 1191</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>附近界面坐标X = 702 : 附近界面坐标Y = 1191</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 附近界面坐标X, 附近界面坐标Y</v>
       </c>
     </row>
@@ -1954,23 +1970,23 @@
         <v>60</v>
       </c>
       <c r="G25" t="str">
-        <f>A25&amp;F25&amp;D25&amp;F25&amp;E25</f>
+        <f t="shared" si="0"/>
         <v>|380|1180</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>城池坐标X = 380</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>城池坐标Y = 1180</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>城池坐标X = 380 : 城池坐标Y = 1180</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 城池坐标X, 城池坐标Y</v>
       </c>
     </row>
@@ -1991,23 +2007,23 @@
         <v>60</v>
       </c>
       <c r="G26" t="str">
-        <f>A26&amp;F26&amp;D26&amp;F26&amp;E26</f>
+        <f t="shared" si="0"/>
         <v>|480|750</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>皇榜任务坐标X = 480</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>皇榜任务坐标Y = 750</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>皇榜任务坐标X = 480 : 皇榜任务坐标Y = 750</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 皇榜任务坐标X, 皇榜任务坐标Y</v>
       </c>
     </row>
@@ -2028,23 +2044,23 @@
         <v>60</v>
       </c>
       <c r="G27" t="str">
-        <f>A27&amp;F27&amp;D27&amp;F27&amp;E27</f>
+        <f t="shared" si="0"/>
         <v>|480|980</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>城池捐献坐标X = 480</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>城池捐献坐标Y = 980</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>城池捐献坐标X = 480 : 城池捐献坐标Y = 980</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 城池捐献坐标X, 城池捐献坐标Y</v>
       </c>
     </row>
@@ -2065,23 +2081,23 @@
         <v>60</v>
       </c>
       <c r="G28" t="str">
-        <f>A28&amp;F28&amp;D28&amp;F28&amp;E28</f>
+        <f t="shared" si="0"/>
         <v>|155|200</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>军团捐献坐标X = 155</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>军团捐献坐标Y = 200</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>军团捐献坐标X = 155 : 军团捐献坐标Y = 200</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 军团捐献坐标X, 军团捐献坐标Y</v>
       </c>
     </row>
@@ -2105,23 +2121,23 @@
         <v>60</v>
       </c>
       <c r="G29" t="str">
-        <f>A29&amp;F29&amp;D29&amp;F29&amp;E29</f>
+        <f t="shared" si="0"/>
         <v>52|155|400</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>军团帮助坐标X = 155</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>军团帮助坐标Y = 400</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>军团帮助坐标X = 155 : 军团帮助坐标Y = 400</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 军团帮助坐标X, 军团帮助坐标Y</v>
       </c>
     </row>
@@ -2145,23 +2161,23 @@
         <v>60</v>
       </c>
       <c r="G30" t="str">
-        <f>A30&amp;F30&amp;D30&amp;F30&amp;E30</f>
+        <f t="shared" si="0"/>
         <v>53|420|1020</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>领取俸禄坐标X = 420</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>领取俸禄坐标Y = 1020</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>领取俸禄坐标X = 420 : 领取俸禄坐标Y = 1020</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 领取俸禄坐标X, 领取俸禄坐标Y</v>
       </c>
     </row>
@@ -2182,23 +2198,23 @@
         <v>60</v>
       </c>
       <c r="G31" t="str">
-        <f>A31&amp;F31&amp;D31&amp;F31&amp;E31</f>
+        <f t="shared" si="0"/>
         <v>|60|740</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>军团商店坐标X = 60</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>军团商店坐标Y = 740</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>军团商店坐标X = 60 : 军团商店坐标Y = 740</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 军团商店坐标X, 军团商店坐标Y</v>
       </c>
     </row>
@@ -2222,23 +2238,23 @@
         <v>60</v>
       </c>
       <c r="G32" t="str">
-        <f>A32&amp;F32&amp;D32&amp;F32&amp;E32</f>
+        <f t="shared" si="0"/>
         <v>38|548|62</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>精英副本坐标X = 548</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>精英副本坐标Y = 62</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>精英副本坐标X = 548 : 精英副本坐标Y = 62</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 精英副本坐标X, 精英副本坐标Y</v>
       </c>
     </row>
@@ -2262,23 +2278,23 @@
         <v>60</v>
       </c>
       <c r="G33" t="str">
-        <f>A33&amp;F33&amp;D33&amp;F33&amp;E33</f>
+        <f t="shared" si="0"/>
         <v>39|430|60</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>名将副本坐标X = 430</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>名将副本坐标Y = 60</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>名将副本坐标X = 430 : 名将副本坐标Y = 60</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 名将副本坐标X, 名将副本坐标Y</v>
       </c>
     </row>
@@ -2302,23 +2318,23 @@
         <v>60</v>
       </c>
       <c r="G34" t="str">
-        <f>A34&amp;F34&amp;D34&amp;F34&amp;E34</f>
+        <f t="shared" si="0"/>
         <v>47|600|860</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>筛选界面坐标X = 600</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>筛选界面坐标Y = 860</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>筛选界面坐标X = 600 : 筛选界面坐标Y = 860</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 筛选界面坐标X, 筛选界面坐标Y</v>
       </c>
     </row>
@@ -2342,23 +2358,23 @@
         <v>60</v>
       </c>
       <c r="G35" t="str">
-        <f>A35&amp;F35&amp;D35&amp;F35&amp;E35</f>
+        <f t="shared" si="0"/>
         <v>45|90|950</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>兵力坐标X = 90</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>兵力坐标Y = 950</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>兵力坐标X = 90 : 兵力坐标Y = 950</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Dim 兵力坐标X, 兵力坐标Y</v>
       </c>
     </row>
@@ -2404,7 +2420,7 @@
         <v>60</v>
       </c>
       <c r="G39" t="str">
-        <f>A39&amp;F39&amp;D39&amp;F39&amp;E39</f>
+        <f t="shared" ref="G39:G51" si="5">A39&amp;F39&amp;D39&amp;F39&amp;E39</f>
         <v>23|-1|-1</v>
       </c>
     </row>
@@ -2428,7 +2444,7 @@
         <v>60</v>
       </c>
       <c r="G40" t="str">
-        <f>A40&amp;F40&amp;D40&amp;F40&amp;E40</f>
+        <f t="shared" si="5"/>
         <v>25|-1|-1</v>
       </c>
     </row>
@@ -2452,7 +2468,7 @@
         <v>60</v>
       </c>
       <c r="G41" t="str">
-        <f>A41&amp;F41&amp;D41&amp;F41&amp;E41</f>
+        <f t="shared" si="5"/>
         <v>27|-1|-1</v>
       </c>
     </row>
@@ -2476,7 +2492,7 @@
         <v>60</v>
       </c>
       <c r="G42" t="str">
-        <f>A42&amp;F42&amp;D42&amp;F42&amp;E42</f>
+        <f t="shared" si="5"/>
         <v>28|-1|-1</v>
       </c>
     </row>
@@ -2500,7 +2516,7 @@
         <v>60</v>
       </c>
       <c r="G43" t="str">
-        <f>A43&amp;F43&amp;D43&amp;F43&amp;E43</f>
+        <f t="shared" si="5"/>
         <v>29|-1|-1</v>
       </c>
     </row>
@@ -2524,7 +2540,7 @@
         <v>60</v>
       </c>
       <c r="G44" t="str">
-        <f>A44&amp;F44&amp;D44&amp;F44&amp;E44</f>
+        <f t="shared" si="5"/>
         <v>30|-1|-1</v>
       </c>
     </row>
@@ -2548,7 +2564,7 @@
         <v>60</v>
       </c>
       <c r="G45" t="str">
-        <f>A45&amp;F45&amp;D45&amp;F45&amp;E45</f>
+        <f t="shared" si="5"/>
         <v>35|-1|-1</v>
       </c>
     </row>
@@ -2572,7 +2588,7 @@
         <v>60</v>
       </c>
       <c r="G46" t="str">
-        <f>A46&amp;F46&amp;D46&amp;F46&amp;E46</f>
+        <f t="shared" si="5"/>
         <v>50|-1|-1</v>
       </c>
     </row>
@@ -2596,7 +2612,7 @@
         <v>60</v>
       </c>
       <c r="G47" t="str">
-        <f>A47&amp;F47&amp;D47&amp;F47&amp;E47</f>
+        <f t="shared" si="5"/>
         <v>66|-1|-1</v>
       </c>
     </row>
@@ -2620,7 +2636,7 @@
         <v>60</v>
       </c>
       <c r="G48" t="str">
-        <f>A48&amp;F48&amp;D48&amp;F48&amp;E48</f>
+        <f t="shared" si="5"/>
         <v>24|-1|-1</v>
       </c>
     </row>
@@ -2644,7 +2660,7 @@
         <v>60</v>
       </c>
       <c r="G49" t="str">
-        <f>A49&amp;F49&amp;D49&amp;F49&amp;E49</f>
+        <f t="shared" si="5"/>
         <v>26|-1|-1</v>
       </c>
     </row>
@@ -2668,7 +2684,7 @@
         <v>60</v>
       </c>
       <c r="G50" t="str">
-        <f>A50&amp;F50&amp;D50&amp;F50&amp;E50</f>
+        <f t="shared" si="5"/>
         <v>51|-1|-1</v>
       </c>
     </row>
@@ -2692,7 +2708,7 @@
         <v>60</v>
       </c>
       <c r="G51" t="str">
-        <f>A51&amp;F51&amp;D51&amp;F51&amp;E51</f>
+        <f t="shared" si="5"/>
         <v>31|-1|-1</v>
       </c>
     </row>
@@ -2756,7 +2772,7 @@
         <v>60</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" ref="G57:G84" si="4">A57&amp;F57&amp;D57&amp;F57&amp;E57</f>
+        <f t="shared" ref="G57:G84" si="6">A57&amp;F57&amp;D57&amp;F57&amp;E57</f>
         <v>11|-1|-1</v>
       </c>
     </row>
@@ -2780,7 +2796,7 @@
         <v>60</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12|-1|-1</v>
       </c>
     </row>
@@ -2804,7 +2820,7 @@
         <v>60</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13|-1|-1</v>
       </c>
     </row>
@@ -2828,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34|-1|-1</v>
       </c>
     </row>
@@ -2852,7 +2868,7 @@
         <v>60</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72|-1|-1</v>
       </c>
     </row>
@@ -2876,7 +2892,7 @@
         <v>60</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37|-1|-1</v>
       </c>
     </row>
@@ -2900,7 +2916,7 @@
         <v>60</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>71|-1|-1</v>
       </c>
     </row>
@@ -2924,7 +2940,7 @@
         <v>60</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65|-1|-1</v>
       </c>
     </row>
@@ -2948,7 +2964,7 @@
         <v>60</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70|-1|-1</v>
       </c>
     </row>
@@ -2972,7 +2988,7 @@
         <v>60</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>73|-1|-1</v>
       </c>
     </row>
@@ -2996,7 +3012,7 @@
         <v>60</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18|-1|-1</v>
       </c>
     </row>
@@ -3020,7 +3036,7 @@
         <v>60</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21|-1|-1</v>
       </c>
     </row>
@@ -3044,7 +3060,7 @@
         <v>60</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22|-1|-1</v>
       </c>
     </row>
@@ -3068,7 +3084,7 @@
         <v>60</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36|-1|-1</v>
       </c>
     </row>
@@ -3092,7 +3108,7 @@
         <v>60</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40|-1|-1</v>
       </c>
     </row>
@@ -3116,7 +3132,7 @@
         <v>60</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>41|-1|-1</v>
       </c>
     </row>
@@ -3140,7 +3156,7 @@
         <v>60</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49|-1|-1</v>
       </c>
     </row>
@@ -3164,7 +3180,7 @@
         <v>60</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>54|-1|-1</v>
       </c>
     </row>
@@ -3188,7 +3204,7 @@
         <v>60</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>55|-1|-1</v>
       </c>
     </row>
@@ -3212,7 +3228,7 @@
         <v>60</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>56|-1|-1</v>
       </c>
     </row>
@@ -3236,7 +3252,7 @@
         <v>60</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>61|-1|-1</v>
       </c>
     </row>
@@ -3260,7 +3276,7 @@
         <v>60</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>62|-1|-1</v>
       </c>
     </row>
@@ -3284,7 +3300,7 @@
         <v>60</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>63|-1|-1</v>
       </c>
     </row>
@@ -3308,7 +3324,7 @@
         <v>60</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64|-1|-1</v>
       </c>
     </row>
@@ -3332,7 +3348,7 @@
         <v>60</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>67|-1|-1</v>
       </c>
     </row>
@@ -3356,7 +3372,7 @@
         <v>60</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>68|-1|-1</v>
       </c>
     </row>
@@ -3380,7 +3396,7 @@
         <v>60</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>69|-1|-1</v>
       </c>
     </row>
@@ -3404,7 +3420,7 @@
         <v>60</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48|-1|-1</v>
       </c>
     </row>
@@ -3807,7 +3823,7 @@
         <v>60</v>
       </c>
       <c r="G2" t="str">
-        <f>A2&amp;F2&amp;D2&amp;F2&amp;E2</f>
+        <f t="shared" ref="G2:G14" si="0">A2&amp;F2&amp;D2&amp;F2&amp;E2</f>
         <v>23|-1|-1</v>
       </c>
     </row>
@@ -3831,7 +3847,7 @@
         <v>60</v>
       </c>
       <c r="G3" t="str">
-        <f>A3&amp;F3&amp;D3&amp;F3&amp;E3</f>
+        <f t="shared" si="0"/>
         <v>25|-1|-1</v>
       </c>
     </row>
@@ -3849,7 +3865,7 @@
         <v>60</v>
       </c>
       <c r="G4" t="str">
-        <f>A4&amp;F4&amp;D4&amp;F4&amp;E4</f>
+        <f t="shared" si="0"/>
         <v>27||</v>
       </c>
     </row>
@@ -3873,7 +3889,7 @@
         <v>60</v>
       </c>
       <c r="G5" t="str">
-        <f>A5&amp;F5&amp;D5&amp;F5&amp;E5</f>
+        <f t="shared" si="0"/>
         <v>28|-1|-1</v>
       </c>
     </row>
@@ -3897,7 +3913,7 @@
         <v>60</v>
       </c>
       <c r="G6" t="str">
-        <f>A6&amp;F6&amp;D6&amp;F6&amp;E6</f>
+        <f t="shared" si="0"/>
         <v>29|-1|-1</v>
       </c>
     </row>
@@ -3915,7 +3931,7 @@
         <v>60</v>
       </c>
       <c r="G7" t="str">
-        <f>A7&amp;F7&amp;D7&amp;F7&amp;E7</f>
+        <f t="shared" si="0"/>
         <v>30||</v>
       </c>
     </row>
@@ -3939,7 +3955,7 @@
         <v>60</v>
       </c>
       <c r="G8" t="str">
-        <f>A8&amp;F8&amp;D8&amp;F8&amp;E8</f>
+        <f t="shared" si="0"/>
         <v>35|-1|-1</v>
       </c>
     </row>
@@ -3957,7 +3973,7 @@
         <v>60</v>
       </c>
       <c r="G9" t="str">
-        <f>A9&amp;F9&amp;D9&amp;F9&amp;E9</f>
+        <f t="shared" si="0"/>
         <v>50||</v>
       </c>
     </row>
@@ -3981,7 +3997,7 @@
         <v>60</v>
       </c>
       <c r="G10" t="str">
-        <f>A10&amp;F10&amp;D10&amp;F10&amp;E10</f>
+        <f t="shared" si="0"/>
         <v>66|-1|-1</v>
       </c>
     </row>
@@ -4005,7 +4021,7 @@
         <v>60</v>
       </c>
       <c r="G11" t="str">
-        <f>A11&amp;F11&amp;D11&amp;F11&amp;E11</f>
+        <f t="shared" si="0"/>
         <v>24|-1|-1</v>
       </c>
     </row>
@@ -4029,7 +4045,7 @@
         <v>60</v>
       </c>
       <c r="G12" t="str">
-        <f>A12&amp;F12&amp;D12&amp;F12&amp;E12</f>
+        <f t="shared" si="0"/>
         <v>26|-1|-1</v>
       </c>
     </row>
@@ -4053,7 +4069,7 @@
         <v>60</v>
       </c>
       <c r="G13" t="str">
-        <f>A13&amp;F13&amp;D13&amp;F13&amp;E13</f>
+        <f t="shared" si="0"/>
         <v>51|-1|-1</v>
       </c>
     </row>
@@ -4077,7 +4093,7 @@
         <v>60</v>
       </c>
       <c r="G14" t="str">
-        <f>A14&amp;F14&amp;D14&amp;F14&amp;E14</f>
+        <f t="shared" si="0"/>
         <v>31|-1|-1</v>
       </c>
     </row>
@@ -4089,17 +4105,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF0FA0C-A860-4423-AA8A-473719AFABB5}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4155,20 +4171,20 @@
         <v>60</v>
       </c>
       <c r="F2" t="str">
-        <f>A2&amp;E2&amp;C2&amp;E2&amp;D2</f>
+        <f t="shared" ref="F2:F16" si="0">A2&amp;E2&amp;C2&amp;E2&amp;D2</f>
         <v>1|465|795</v>
       </c>
       <c r="H2" t="str">
-        <f>$B2&amp;$H$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$D2</f>
-        <v>酒肆坐标X = 795</v>
+        <f>$B2&amp;$H$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$C2</f>
+        <v>酒肆坐标X = 465</v>
       </c>
       <c r="I2" t="str">
         <f>$B2&amp;$I$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$D2</f>
         <v>酒肆坐标Y = 795</v>
       </c>
       <c r="J2" t="str">
-        <f>H2&amp;$J$1&amp;$M$1&amp;$J$1&amp;I2</f>
-        <v>酒肆坐标X = 795 : 酒肆坐标Y = 795</v>
+        <f t="shared" ref="J2:J15" si="1">H2&amp;$J$1&amp;$M$1&amp;$J$1&amp;I2</f>
+        <v>酒肆坐标X = 465 : 酒肆坐标Y = 795</v>
       </c>
       <c r="K2" t="str">
         <f>$K$1&amp;$J$1&amp;$B2&amp;$H$1&amp;$N$1&amp;$J$1&amp;$B2&amp;$I$1</f>
@@ -4192,23 +4208,23 @@
         <v>60</v>
       </c>
       <c r="F3" t="str">
-        <f>A3&amp;E3&amp;C3&amp;E3&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>2|470|640</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H14" si="0">$B3&amp;$H$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$D3</f>
-        <v>祭坛坐标X = 640</v>
+        <f t="shared" ref="H3:H17" si="2">$B3&amp;$H$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$C3</f>
+        <v>祭坛坐标X = 470</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I14" si="1">$B3&amp;$I$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$D3</f>
+        <f t="shared" ref="I3:I17" si="3">$B3&amp;$I$1&amp;$J$1&amp;$L$1&amp;$J$1&amp;$D3</f>
         <v>祭坛坐标Y = 640</v>
       </c>
       <c r="J3" t="str">
-        <f>H3&amp;$J$1&amp;$M$1&amp;$J$1&amp;I3</f>
-        <v>祭坛坐标X = 640 : 祭坛坐标Y = 640</v>
+        <f t="shared" si="1"/>
+        <v>祭坛坐标X = 470 : 祭坛坐标Y = 640</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K14" si="2">$K$1&amp;$J$1&amp;$B3&amp;$H$1&amp;$N$1&amp;$J$1&amp;$B3&amp;$I$1</f>
+        <f t="shared" ref="K3:K17" si="4">$K$1&amp;$J$1&amp;$B3&amp;$H$1&amp;$N$1&amp;$J$1&amp;$B3&amp;$I$1</f>
         <v>Dim 祭坛坐标X, 祭坛坐标Y</v>
       </c>
     </row>
@@ -4229,23 +4245,23 @@
         <v>60</v>
       </c>
       <c r="F4" t="str">
-        <f>A4&amp;E4&amp;C4&amp;E4&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>3|464|1174</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>技法所坐标X = 1174</v>
+        <f t="shared" si="2"/>
+        <v>技法所坐标X = 464</v>
       </c>
       <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>技法所坐标Y = 1174</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>技法所坐标Y = 1174</v>
-      </c>
-      <c r="J4" t="str">
-        <f>H4&amp;$J$1&amp;$M$1&amp;$J$1&amp;I4</f>
-        <v>技法所坐标X = 1174 : 技法所坐标Y = 1174</v>
+        <v>技法所坐标X = 464 : 技法所坐标Y = 1174</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 技法所坐标X, 技法所坐标Y</v>
       </c>
     </row>
@@ -4266,23 +4282,23 @@
         <v>60</v>
       </c>
       <c r="F5" t="str">
-        <f>A5&amp;E5&amp;C5&amp;E5&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>4|530|463</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>计略府坐标X = 463</v>
+        <f t="shared" si="2"/>
+        <v>计略府坐标X = 530</v>
       </c>
       <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>计略府坐标Y = 463</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>计略府坐标Y = 463</v>
-      </c>
-      <c r="J5" t="str">
-        <f>H5&amp;$J$1&amp;$M$1&amp;$J$1&amp;I5</f>
-        <v>计略府坐标X = 463 : 计略府坐标Y = 463</v>
+        <v>计略府坐标X = 530 : 计略府坐标Y = 463</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 计略府坐标X, 计略府坐标Y</v>
       </c>
     </row>
@@ -4303,23 +4319,23 @@
         <v>60</v>
       </c>
       <c r="F6" t="str">
-        <f>A6&amp;E6&amp;C6&amp;E6&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>5|488|475</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>军械所坐标X = 475</v>
+        <f t="shared" si="2"/>
+        <v>军械所坐标X = 488</v>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>军械所坐标Y = 475</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>军械所坐标Y = 475</v>
-      </c>
-      <c r="J6" t="str">
-        <f>H6&amp;$J$1&amp;$M$1&amp;$J$1&amp;I6</f>
-        <v>军械所坐标X = 475 : 军械所坐标Y = 475</v>
+        <v>军械所坐标X = 488 : 军械所坐标Y = 475</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 军械所坐标X, 军械所坐标Y</v>
       </c>
     </row>
@@ -4340,23 +4356,23 @@
         <v>60</v>
       </c>
       <c r="F7" t="str">
-        <f>A7&amp;E7&amp;C7&amp;E7&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>6|300|635</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>城墙坐标X = 635</v>
+        <f t="shared" si="2"/>
+        <v>城墙坐标X = 300</v>
       </c>
       <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>城墙坐标Y = 635</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>城墙坐标Y = 635</v>
-      </c>
-      <c r="J7" t="str">
-        <f>H7&amp;$J$1&amp;$M$1&amp;$J$1&amp;I7</f>
-        <v>城墙坐标X = 635 : 城墙坐标Y = 635</v>
+        <v>城墙坐标X = 300 : 城墙坐标Y = 635</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 城墙坐标X, 城墙坐标Y</v>
       </c>
     </row>
@@ -4377,23 +4393,23 @@
         <v>60</v>
       </c>
       <c r="F8" t="str">
-        <f>A8&amp;E8&amp;C8&amp;E8&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>7|370|850</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>市场坐标X = 850</v>
+        <f t="shared" si="2"/>
+        <v>市场坐标X = 370</v>
       </c>
       <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>市场坐标Y = 850</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="1"/>
-        <v>市场坐标Y = 850</v>
-      </c>
-      <c r="J8" t="str">
-        <f>H8&amp;$J$1&amp;$M$1&amp;$J$1&amp;I8</f>
-        <v>市场坐标X = 850 : 市场坐标Y = 850</v>
+        <v>市场坐标X = 370 : 市场坐标Y = 850</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 市场坐标X, 市场坐标Y</v>
       </c>
     </row>
@@ -4414,23 +4430,23 @@
         <v>60</v>
       </c>
       <c r="F9" t="str">
-        <f>A9&amp;E9&amp;C9&amp;E9&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>8|-1|-1</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>仓库坐标X = -1</v>
       </c>
       <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>仓库坐标Y = -1</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>仓库坐标Y = -1</v>
-      </c>
-      <c r="J9" t="str">
-        <f>H9&amp;$J$1&amp;$M$1&amp;$J$1&amp;I9</f>
         <v>仓库坐标X = -1 : 仓库坐标Y = -1</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 仓库坐标X, 仓库坐标Y</v>
       </c>
     </row>
@@ -4451,23 +4467,23 @@
         <v>60</v>
       </c>
       <c r="F10" t="str">
-        <f>A10&amp;E10&amp;C10&amp;E10&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>9|500|775</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>铸币所坐标X = 775</v>
+        <f t="shared" si="2"/>
+        <v>铸币所坐标X = 500</v>
       </c>
       <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>铸币所坐标Y = 775</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>铸币所坐标Y = 775</v>
-      </c>
-      <c r="J10" t="str">
-        <f>H10&amp;$J$1&amp;$M$1&amp;$J$1&amp;I10</f>
-        <v>铸币所坐标X = 775 : 铸币所坐标Y = 775</v>
+        <v>铸币所坐标X = 500 : 铸币所坐标Y = 775</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 铸币所坐标X, 铸币所坐标Y</v>
       </c>
     </row>
@@ -4488,23 +4504,23 @@
         <v>60</v>
       </c>
       <c r="F11" t="str">
-        <f>A11&amp;E11&amp;C11&amp;E11&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>10|577|775</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>大殿坐标X = 775</v>
+        <f t="shared" si="2"/>
+        <v>大殿坐标X = 577</v>
       </c>
       <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>大殿坐标Y = 775</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="1"/>
-        <v>大殿坐标Y = 775</v>
-      </c>
-      <c r="J11" t="str">
-        <f>H11&amp;$J$1&amp;$M$1&amp;$J$1&amp;I11</f>
-        <v>大殿坐标X = 775 : 大殿坐标Y = 775</v>
+        <v>大殿坐标X = 577 : 大殿坐标Y = 775</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 大殿坐标X, 大殿坐标Y</v>
       </c>
     </row>
@@ -4525,23 +4541,23 @@
         <v>60</v>
       </c>
       <c r="F12" t="str">
-        <f>A12&amp;E12&amp;C12&amp;E12&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>11|-1|-1</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>黑市坐标X = -1</v>
       </c>
       <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>黑市坐标Y = -1</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="1"/>
-        <v>黑市坐标Y = -1</v>
-      </c>
-      <c r="J12" t="str">
-        <f>H12&amp;$J$1&amp;$M$1&amp;$J$1&amp;I12</f>
         <v>黑市坐标X = -1 : 黑市坐标Y = -1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 黑市坐标X, 黑市坐标Y</v>
       </c>
     </row>
@@ -4562,23 +4578,23 @@
         <v>60</v>
       </c>
       <c r="F13" t="str">
-        <f>A13&amp;E13&amp;C13&amp;E13&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>12|-1|-1</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>藏宝阁坐标X = -1</v>
       </c>
       <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>藏宝阁坐标Y = -1</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>藏宝阁坐标Y = -1</v>
-      </c>
-      <c r="J13" t="str">
-        <f>H13&amp;$J$1&amp;$M$1&amp;$J$1&amp;I13</f>
         <v>藏宝阁坐标X = -1 : 藏宝阁坐标Y = -1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dim 藏宝阁坐标X, 藏宝阁坐标Y</v>
       </c>
     </row>
@@ -4599,43 +4615,156 @@
         <v>60</v>
       </c>
       <c r="F14" t="str">
-        <f>A14&amp;E14&amp;C14&amp;E14&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>13|-1|-1</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>马场坐标X = -1</v>
       </c>
       <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>马场坐标Y = -1</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>马场坐标Y = -1</v>
-      </c>
-      <c r="J14" t="str">
-        <f>H14&amp;$J$1&amp;$M$1&amp;$J$1&amp;I14</f>
         <v>马场坐标X = -1 : 马场坐标Y = -1</v>
       </c>
       <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>Dim 马场坐标X, 马场坐标Y</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>245</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>14|122|245</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
-        <v>Dim 马场坐标X, 马场坐标Y</v>
+        <v>左侧第一矿坐标X = 122</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>左侧第一矿坐标Y = 245</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>左侧第一矿坐标X = 122 : 左侧第一矿坐标Y = 245</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>Dim 左侧第一矿坐标X, 左侧第一矿坐标Y</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16">
+        <v>207</v>
+      </c>
+      <c r="D16">
+        <v>1126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>15|207|1126</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>右侧第一矿坐标X = 207</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>右侧第一矿坐标Y = 1126</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ref="J16:J17" si="5">H16&amp;$J$1&amp;$M$1&amp;$J$1&amp;I16</f>
+        <v>右侧第一矿坐标X = 207 : 右侧第一矿坐标Y = 1126</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>Dim 右侧第一矿坐标X, 右侧第一矿坐标Y</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17">
+        <v>445</v>
+      </c>
+      <c r="D17">
+        <v>955</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" ref="F17" si="6">A17&amp;E17&amp;C17&amp;E17&amp;D17</f>
+        <v>16|445|955</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>城墙2坐标X = 445</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>城墙2坐标Y = 955</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>城墙2坐标X = 445 : 城墙2坐标Y = 955</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>Dim 城墙2坐标X, 城墙2坐标Y</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4A1671-852C-4B13-81B5-A4D1F3828B9A}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="50.5" bestFit="1" customWidth="1"/>
@@ -6645,19 +6774,19 @@
         <v>46|600|1140</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" ref="J47:J48" si="10">$D47&amp;E$1&amp;$L$1&amp;$N$1&amp;$L$1&amp;E47</f>
+        <f t="shared" ref="J47:J49" si="10">$D47&amp;E$1&amp;$L$1&amp;$N$1&amp;$L$1&amp;E47</f>
         <v>野外顶部展开坐标X = 600</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" ref="K47:K48" si="11">$D47&amp;F$1&amp;$L$1&amp;$N$1&amp;$L$1&amp;F47</f>
+        <f t="shared" ref="K47:K49" si="11">$D47&amp;F$1&amp;$L$1&amp;$N$1&amp;$L$1&amp;F47</f>
         <v>野外顶部展开坐标Y = 1140</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ref="L47:L48" si="12">J47&amp;$L$1&amp;$O$1&amp;$L$1&amp;K47</f>
+        <f t="shared" ref="L47:L49" si="12">J47&amp;$L$1&amp;$O$1&amp;$L$1&amp;K47</f>
         <v>野外顶部展开坐标X = 600 : 野外顶部展开坐标Y = 1140</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ref="M47:M48" si="13">$M$1&amp;$L$1&amp;D47&amp;$J$1&amp;$P$1&amp;$L$1&amp;D47&amp;$K$1</f>
+        <f t="shared" ref="M47:M49" si="13">$M$1&amp;$L$1&amp;D47&amp;$J$1&amp;$P$1&amp;$L$1&amp;D47&amp;$K$1</f>
         <v>Dim 野外顶部展开坐标X, 野外顶部展开坐标Y</v>
       </c>
     </row>
@@ -6702,6 +6831,49 @@
       <c r="M48" t="str">
         <f t="shared" si="13"/>
         <v>Dim 选服按钮坐标X, 选服按钮坐标Y</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49">
+        <v>230</v>
+      </c>
+      <c r="F49">
+        <v>1030</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ref="H49" si="15">A49&amp;G49&amp;E49&amp;G49&amp;F49</f>
+        <v>48|230|1030</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="10"/>
+        <v>离开2坐标X = 230</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="11"/>
+        <v>离开2坐标Y = 1030</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="12"/>
+        <v>离开2坐标X = 230 : 离开2坐标Y = 1030</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="13"/>
+        <v>Dim 离开2坐标X, 离开2坐标Y</v>
       </c>
     </row>
   </sheetData>

--- a/sgz2017Res/坐标信息.xlsx
+++ b/sgz2017Res/坐标信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\按键精灵\sgz2017Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5898E3AC-30D6-4E9F-8776-15EECB46A8B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1765CF5D-2559-49DA-9BDF-EFD7A26A559B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" xr2:uid="{04D67D9C-1B2C-4622-8A0B-4E541DA10E4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12135" activeTab="5" xr2:uid="{04D67D9C-1B2C-4622-8A0B-4E541DA10E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="进界面固定坐标" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="建筑进界面" sheetId="5" r:id="rId3"/>
     <sheet name="建筑坐标" sheetId="11" r:id="rId4"/>
     <sheet name="功能按钮坐标" sheetId="9" r:id="rId5"/>
+    <sheet name="文字识别区域" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="185">
   <si>
     <t>普通副本</t>
   </si>
@@ -598,6 +599,67 @@
   </si>
   <si>
     <t>离开2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部左上框体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部标题框1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部中间框2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动画面框体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外主城坐标X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外主城坐标Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>678, 597, 706, 648</t>
+  </si>
+  <si>
+    <t>678, 712, 706, 765</t>
+  </si>
+  <si>
+    <t>105,903,145,1040,</t>
+  </si>
+  <si>
+    <t>任务界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶部中间框3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,11 +714,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB9CDB2-2A48-4C18-B82B-4B86BCF8C422}">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,19 +1159,19 @@
         <v>3|316|1178</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I35" si="1">$C3&amp;$I$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$D3</f>
+        <f t="shared" ref="I3:I36" si="1">$C3&amp;$I$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$D3</f>
         <v>副本坐标X = 316</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J35" si="2">$C3&amp;$J$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$E3</f>
+        <f t="shared" ref="J3:J36" si="2">$C3&amp;$J$1&amp;$K$1&amp;$M$1&amp;$K$1&amp;$E3</f>
         <v>副本坐标Y = 1178</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K35" si="3">I3&amp;$K$1&amp;$N$1&amp;$K$1&amp;J3</f>
+        <f t="shared" ref="K3:K36" si="3">I3&amp;$K$1&amp;$N$1&amp;$K$1&amp;J3</f>
         <v>副本坐标X = 316 : 副本坐标Y = 1178</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L35" si="4">$L$1&amp;$K$1&amp;$C3&amp;$I$1&amp;$O$1&amp;$K$1&amp;$C3&amp;$J$1</f>
+        <f t="shared" ref="L3:L36" si="4">$L$1&amp;$K$1&amp;$C3&amp;$I$1&amp;$O$1&amp;$K$1&amp;$C3&amp;$J$1</f>
         <v>Dim 副本坐标X, 副本坐标Y</v>
       </c>
     </row>
@@ -2378,61 +2443,77 @@
         <v>Dim 兵力坐标X, 兵力坐标Y</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>154</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36">
+        <v>245</v>
+      </c>
+      <c r="E36">
+        <v>850</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36" si="5">A36&amp;F36&amp;D36&amp;F36&amp;E36</f>
+        <v>74|245|850</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>选择服务器坐标X = 245</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>选择服务器坐标Y = 850</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="3"/>
+        <v>选择服务器坐标X = 245 : 选择服务器坐标Y = 850</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v>Dim 选择服务器坐标X, 选择服务器坐标Y</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>57</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-      <c r="E39">
-        <v>-1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" ref="G39:G51" si="5">A39&amp;F39&amp;D39&amp;F39&amp;E39</f>
-        <v>23|-1|-1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>-1</v>
@@ -2444,19 +2525,19 @@
         <v>60</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="5"/>
-        <v>25|-1|-1</v>
+        <f t="shared" ref="G40:G52" si="6">A40&amp;F40&amp;D40&amp;F40&amp;E40</f>
+        <v>23|-1|-1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -2468,19 +2549,19 @@
         <v>60</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
-        <v>27|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>25|-1|-1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -2492,19 +2573,19 @@
         <v>60</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="5"/>
-        <v>28|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>27|-1|-1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -2516,19 +2597,19 @@
         <v>60</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
-        <v>29|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>28|-1|-1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -2540,19 +2621,19 @@
         <v>60</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
-        <v>30|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>29|-1|-1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -2564,19 +2645,19 @@
         <v>60</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="5"/>
-        <v>35|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>30|-1|-1</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -2588,67 +2669,67 @@
         <v>60</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="5"/>
-        <v>50|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>35|-1|-1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="6"/>
+        <v>50|-1|-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="5"/>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="6"/>
         <v>66|-1|-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48">
-        <v>-1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="5"/>
-        <v>24|-1|-1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2660,19 +2741,19 @@
         <v>60</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="5"/>
-        <v>26|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>24|-1|-1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2684,83 +2765,83 @@
         <v>60</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="5"/>
-        <v>51|-1|-1</v>
+        <f t="shared" si="6"/>
+        <v>26|-1|-1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>146</v>
       </c>
       <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>51|-1|-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
         <v>82</v>
       </c>
-      <c r="D51">
-        <v>-1</v>
-      </c>
-      <c r="E51">
-        <v>-1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="5"/>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
         <v>31|-1|-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
-      </c>
-      <c r="E56">
-        <v>-1</v>
-      </c>
-      <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="str">
-        <f>A56&amp;F56&amp;D56&amp;F56&amp;E56</f>
-        <v>10|-1|-1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -2772,19 +2853,19 @@
         <v>60</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" ref="G57:G84" si="6">A57&amp;F57&amp;D57&amp;F57&amp;E57</f>
-        <v>11|-1|-1</v>
+        <f>A57&amp;F57&amp;D57&amp;F57&amp;E57</f>
+        <v>10|-1|-1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -2796,19 +2877,19 @@
         <v>60</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="6"/>
-        <v>12|-1|-1</v>
+        <f t="shared" ref="G58:G85" si="7">A58&amp;F58&amp;D58&amp;F58&amp;E58</f>
+        <v>11|-1|-1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -2820,67 +2901,67 @@
         <v>60</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="6"/>
-        <v>13|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>12|-1|-1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="7"/>
+        <v>13|-1|-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
         <v>83</v>
       </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-      <c r="E60">
-        <v>-1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="6"/>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="7"/>
         <v>34|-1|-1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
-      </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="6"/>
-        <v>72|-1|-1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -2892,19 +2973,19 @@
         <v>60</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="6"/>
-        <v>37|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>72|-1|-1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -2916,19 +2997,19 @@
         <v>60</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="6"/>
-        <v>71|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>37|-1|-1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
         <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -2940,19 +3021,19 @@
         <v>60</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="6"/>
-        <v>65|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>71|-1|-1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -2964,19 +3045,19 @@
         <v>60</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="6"/>
-        <v>70|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>65|-1|-1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -2988,19 +3069,19 @@
         <v>60</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="6"/>
-        <v>73|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>70|-1|-1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -3012,19 +3093,19 @@
         <v>60</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="6"/>
-        <v>18|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>73|-1|-1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68">
         <v>-1</v>
@@ -3036,19 +3117,19 @@
         <v>60</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="6"/>
-        <v>21|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>18|-1|-1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69">
         <v>-1</v>
@@ -3060,19 +3141,19 @@
         <v>60</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="6"/>
-        <v>22|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>21|-1|-1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D70">
         <v>-1</v>
@@ -3084,19 +3165,19 @@
         <v>60</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="6"/>
-        <v>36|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>22|-1|-1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
         <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -3108,19 +3189,19 @@
         <v>60</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="6"/>
-        <v>40|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>36|-1|-1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>-1</v>
@@ -3132,19 +3213,19 @@
         <v>60</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="6"/>
-        <v>41|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>40|-1|-1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B73" t="s">
         <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>-1</v>
@@ -3156,19 +3237,19 @@
         <v>60</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="6"/>
-        <v>49|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>41|-1|-1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D74">
         <v>-1</v>
@@ -3180,19 +3261,19 @@
         <v>60</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="6"/>
-        <v>54|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>49|-1|-1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
         <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75">
         <v>-1</v>
@@ -3204,19 +3285,19 @@
         <v>60</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="6"/>
-        <v>55|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>54|-1|-1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>-1</v>
@@ -3228,19 +3309,19 @@
         <v>60</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="6"/>
-        <v>56|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>55|-1|-1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
         <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D77">
         <v>-1</v>
@@ -3252,19 +3333,19 @@
         <v>60</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="6"/>
-        <v>61|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>56|-1|-1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
         <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -3276,19 +3357,19 @@
         <v>60</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="6"/>
-        <v>62|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>61|-1|-1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
         <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79">
         <v>-1</v>
@@ -3300,19 +3381,19 @@
         <v>60</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="6"/>
-        <v>63|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>62|-1|-1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
         <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80">
         <v>-1</v>
@@ -3324,19 +3405,19 @@
         <v>60</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="6"/>
-        <v>64|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>63|-1|-1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>-1</v>
@@ -3348,19 +3429,19 @@
         <v>60</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="6"/>
-        <v>67|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>64|-1|-1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82">
         <v>-1</v>
@@ -3372,19 +3453,19 @@
         <v>60</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="6"/>
-        <v>68|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>67|-1|-1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
         <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83">
         <v>-1</v>
@@ -3396,31 +3477,55 @@
         <v>60</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="6"/>
-        <v>69|-1|-1</v>
+        <f t="shared" si="7"/>
+        <v>68|-1|-1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84">
+        <v>-1</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="7"/>
+        <v>69|-1|-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>48</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>125</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>91</v>
       </c>
-      <c r="D84">
-        <v>-1</v>
-      </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>60</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="6"/>
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="7"/>
         <v>48|-1|-1</v>
       </c>
     </row>
@@ -6880,4 +6985,163 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723C92D2-D322-4B6B-8006-4E5D2D0E40FF}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>580</v>
+      </c>
+      <c r="C2">
+        <v>541</v>
+      </c>
+      <c r="D2">
+        <v>664</v>
+      </c>
+      <c r="E2">
+        <v>723</v>
+      </c>
+      <c r="I2">
+        <f>1080/720</f>
+        <v>1.5</v>
+      </c>
+      <c r="J2">
+        <f>1920/1280</f>
+        <v>1.5</v>
+      </c>
+      <c r="L2">
+        <f>1440/720</f>
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>2560/1280</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>659</v>
+      </c>
+      <c r="C3">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>718</v>
+      </c>
+      <c r="E3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>630</v>
+      </c>
+      <c r="C4">
+        <v>569</v>
+      </c>
+      <c r="D4" s="2">
+        <v>684</v>
+      </c>
+      <c r="E4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>565</v>
+      </c>
+      <c r="D5">
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6">
+        <v>467</v>
+      </c>
+      <c r="C6">
+        <v>571</v>
+      </c>
+      <c r="D6">
+        <v>559</v>
+      </c>
+      <c r="E6">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>